--- a/Code/Results/Cases/Case_3_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_112/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000351658449917</v>
+        <v>1.022559500331671</v>
       </c>
       <c r="D2">
-        <v>1.017608626112054</v>
+        <v>1.028240752498946</v>
       </c>
       <c r="E2">
-        <v>1.006812458667999</v>
+        <v>1.023296285314085</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040822166061162</v>
+        <v>1.031292256682527</v>
       </c>
       <c r="J2">
-        <v>1.022521856558581</v>
+        <v>1.02774465489041</v>
       </c>
       <c r="K2">
-        <v>1.02882797667174</v>
+        <v>1.03105814358181</v>
       </c>
       <c r="L2">
-        <v>1.018177694042056</v>
+        <v>1.026128140484702</v>
       </c>
       <c r="N2">
-        <v>1.011542534733745</v>
+        <v>1.013326145891841</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003688958938006</v>
+        <v>1.023268414497513</v>
       </c>
       <c r="D3">
-        <v>1.019943528289189</v>
+        <v>1.028757867005622</v>
       </c>
       <c r="E3">
-        <v>1.009389590544877</v>
+        <v>1.023891552078117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041554770053533</v>
+        <v>1.031404072018624</v>
       </c>
       <c r="J3">
-        <v>1.02407956190123</v>
+        <v>1.028092919966117</v>
       </c>
       <c r="K3">
-        <v>1.030327432127266</v>
+        <v>1.031383937220203</v>
       </c>
       <c r="L3">
-        <v>1.019903723128224</v>
+        <v>1.026530833216134</v>
       </c>
       <c r="N3">
-        <v>1.012059328520738</v>
+        <v>1.013441430053179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005811900364848</v>
+        <v>1.023727788980767</v>
       </c>
       <c r="D4">
-        <v>1.021431340310257</v>
+        <v>1.029092973938511</v>
       </c>
       <c r="E4">
-        <v>1.011034671633659</v>
+        <v>1.02427769913853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042012643378293</v>
+        <v>1.031475514945559</v>
       </c>
       <c r="J4">
-        <v>1.025068096561436</v>
+        <v>1.028318231701515</v>
       </c>
       <c r="K4">
-        <v>1.031277809830371</v>
+        <v>1.031594532211163</v>
       </c>
       <c r="L4">
-        <v>1.021001717469272</v>
+        <v>1.026791674326228</v>
       </c>
       <c r="N4">
-        <v>1.012387271873013</v>
+        <v>1.013516002383445</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006695870604956</v>
+        <v>1.023921065817073</v>
       </c>
       <c r="D5">
-        <v>1.022051418421437</v>
+        <v>1.029233970396204</v>
       </c>
       <c r="E5">
-        <v>1.01172100611522</v>
+        <v>1.024440265402363</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042201310824382</v>
+        <v>1.031505331152814</v>
       </c>
       <c r="J5">
-        <v>1.025479122120323</v>
+        <v>1.028412942036504</v>
       </c>
       <c r="K5">
-        <v>1.031672676086459</v>
+        <v>1.031683013401435</v>
       </c>
       <c r="L5">
-        <v>1.021458892265077</v>
+        <v>1.026901395518175</v>
       </c>
       <c r="N5">
-        <v>1.012523622992458</v>
+        <v>1.013547346318703</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006843800269634</v>
+        <v>1.023953526923395</v>
       </c>
       <c r="D6">
-        <v>1.022155218970372</v>
+        <v>1.029257651153379</v>
       </c>
       <c r="E6">
-        <v>1.011835940023059</v>
+        <v>1.024467574421888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042232766145509</v>
+        <v>1.031510324595928</v>
       </c>
       <c r="J6">
-        <v>1.025547870633922</v>
+        <v>1.028428843650122</v>
       </c>
       <c r="K6">
-        <v>1.031738704264995</v>
+        <v>1.031697866637035</v>
       </c>
       <c r="L6">
-        <v>1.021535397272112</v>
+        <v>1.02691982187361</v>
       </c>
       <c r="N6">
-        <v>1.012546428867703</v>
+        <v>1.01355260872181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005823745177846</v>
+        <v>1.02373037094576</v>
       </c>
       <c r="D7">
-        <v>1.021439646885471</v>
+        <v>1.029094857480925</v>
       </c>
       <c r="E7">
-        <v>1.011043862960255</v>
+        <v>1.024279870455654</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042015179318027</v>
+        <v>1.031475914210296</v>
       </c>
       <c r="J7">
-        <v>1.025073606481837</v>
+        <v>1.028319497269484</v>
       </c>
       <c r="K7">
-        <v>1.031283104302147</v>
+        <v>1.031595714710961</v>
       </c>
       <c r="L7">
-        <v>1.021007843514628</v>
+        <v>1.026793140178224</v>
       </c>
       <c r="N7">
-        <v>1.012389099722728</v>
+        <v>1.013516421227882</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001487215178482</v>
+        <v>1.022798943347535</v>
       </c>
       <c r="D8">
-        <v>1.018402555050159</v>
+        <v>1.028415409176045</v>
       </c>
       <c r="E8">
-        <v>1.007688148721123</v>
+        <v>1.023497256469095</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041073131201529</v>
+        <v>1.031330232967939</v>
       </c>
       <c r="J8">
-        <v>1.023052364269918</v>
+        <v>1.027862359968063</v>
       </c>
       <c r="K8">
-        <v>1.029338890809278</v>
+        <v>1.031168290797446</v>
       </c>
       <c r="L8">
-        <v>1.018764976565312</v>
+        <v>1.026264175146489</v>
       </c>
       <c r="N8">
-        <v>1.011718542661711</v>
+        <v>1.013365111447912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9935553857872537</v>
+        <v>1.021162794114935</v>
       </c>
       <c r="D9">
-        <v>1.012869121352418</v>
+        <v>1.027222047598256</v>
       </c>
       <c r="E9">
-        <v>1.001596699618935</v>
+        <v>1.02212570979588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039286983699086</v>
+        <v>1.031066595492564</v>
       </c>
       <c r="J9">
-        <v>1.019337790698516</v>
+        <v>1.027056586997696</v>
       </c>
       <c r="K9">
-        <v>1.025756800405138</v>
+        <v>1.030413528614407</v>
       </c>
       <c r="L9">
-        <v>1.014663924495386</v>
+        <v>1.025334221632805</v>
       </c>
       <c r="N9">
-        <v>1.010486101703795</v>
+        <v>1.013098319533667</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.988056761062046</v>
+        <v>1.020075613639945</v>
       </c>
       <c r="D10">
-        <v>1.009050231375133</v>
+        <v>1.026429225202065</v>
       </c>
       <c r="E10">
-        <v>0.9974072148708345</v>
+        <v>1.021216526429121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038008046870659</v>
+        <v>1.030886224749195</v>
       </c>
       <c r="J10">
-        <v>1.016752379379017</v>
+        <v>1.026519326461464</v>
       </c>
       <c r="K10">
-        <v>1.023257981365003</v>
+        <v>1.029909371199445</v>
       </c>
       <c r="L10">
-        <v>1.011823441187087</v>
+        <v>1.024715789705058</v>
       </c>
       <c r="N10">
-        <v>1.009628275309872</v>
+        <v>1.012920375685183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9856221432782571</v>
+        <v>1.019605729777308</v>
       </c>
       <c r="D11">
-        <v>1.007363964783267</v>
+        <v>1.026086602803255</v>
       </c>
       <c r="E11">
-        <v>0.9955606050422854</v>
+        <v>1.02082409558772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037432542586175</v>
+        <v>1.030807037959869</v>
       </c>
       <c r="J11">
-        <v>1.015605536425171</v>
+        <v>1.02628668546959</v>
       </c>
       <c r="K11">
-        <v>1.022148330985918</v>
+        <v>1.029690850270821</v>
       </c>
       <c r="L11">
-        <v>1.010566730288333</v>
+        <v>1.024448385809254</v>
       </c>
       <c r="N11">
-        <v>1.009247763872064</v>
+        <v>1.01284331043334</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9847094231474657</v>
+        <v>1.019431327249483</v>
       </c>
       <c r="D12">
-        <v>1.006732539250778</v>
+        <v>1.025959441092668</v>
       </c>
       <c r="E12">
-        <v>0.9948696215599914</v>
+        <v>1.020678519522587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037215439923029</v>
+        <v>1.030777462221318</v>
       </c>
       <c r="J12">
-        <v>1.015175307448049</v>
+        <v>1.026200273114445</v>
       </c>
       <c r="K12">
-        <v>1.021731881201351</v>
+        <v>1.029609650651503</v>
       </c>
       <c r="L12">
-        <v>1.010095776022155</v>
+        <v>1.024349118950473</v>
       </c>
       <c r="N12">
-        <v>1.009105019767487</v>
+        <v>1.012814683291907</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9849055900818093</v>
+        <v>1.019468731118367</v>
       </c>
       <c r="D13">
-        <v>1.006868214364528</v>
+        <v>1.025986712993796</v>
       </c>
       <c r="E13">
-        <v>0.9950180723296043</v>
+        <v>1.020709737439665</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037262161285032</v>
+        <v>1.030783813646776</v>
       </c>
       <c r="J13">
-        <v>1.015267787113893</v>
+        <v>1.026218808796028</v>
       </c>
       <c r="K13">
-        <v>1.021821406642207</v>
+        <v>1.02962706963484</v>
       </c>
       <c r="L13">
-        <v>1.010196987615246</v>
+        <v>1.024370409340013</v>
       </c>
       <c r="N13">
-        <v>1.00913570316597</v>
+        <v>1.012820823978944</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9855468707656725</v>
+        <v>1.019591310878859</v>
       </c>
       <c r="D14">
-        <v>1.007311875374423</v>
+        <v>1.02607608945301</v>
       </c>
       <c r="E14">
-        <v>0.9955035926500725</v>
+        <v>1.020812058331643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037414665270234</v>
+        <v>1.030804596525213</v>
       </c>
       <c r="J14">
-        <v>1.015570060856716</v>
+        <v>1.026279542571493</v>
       </c>
       <c r="K14">
-        <v>1.022113995082168</v>
+        <v>1.029684138913388</v>
       </c>
       <c r="L14">
-        <v>1.010527886644544</v>
+        <v>1.024440179169998</v>
       </c>
       <c r="N14">
-        <v>1.009235993522056</v>
+        <v>1.01284094413627</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9859408624195499</v>
+        <v>1.01966685403852</v>
       </c>
       <c r="D15">
-        <v>1.007584552570211</v>
+        <v>1.026131171017345</v>
       </c>
       <c r="E15">
-        <v>0.9958020602745155</v>
+        <v>1.020875126881912</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037508183902561</v>
+        <v>1.030817380067605</v>
       </c>
       <c r="J15">
-        <v>1.015755735712351</v>
+        <v>1.026316962812224</v>
       </c>
       <c r="K15">
-        <v>1.022293698058673</v>
+        <v>1.029719297086257</v>
       </c>
       <c r="L15">
-        <v>1.01073120961245</v>
+        <v>1.024483174510956</v>
       </c>
       <c r="N15">
-        <v>1.009297598193215</v>
+        <v>1.012853340621752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9882171798984896</v>
+        <v>1.020106816852462</v>
       </c>
       <c r="D16">
-        <v>1.009161441365247</v>
+        <v>1.026451978321934</v>
       </c>
       <c r="E16">
-        <v>0.9975290674329343</v>
+        <v>1.021242597327571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03804577758596</v>
+        <v>1.030891457321049</v>
       </c>
       <c r="J16">
-        <v>1.016827904327613</v>
+        <v>1.026534766122063</v>
       </c>
       <c r="K16">
-        <v>1.023331032404871</v>
+        <v>1.02992386925651</v>
       </c>
       <c r="L16">
-        <v>1.011906269707483</v>
+        <v>1.024733544587713</v>
       </c>
       <c r="N16">
-        <v>1.00965333394847</v>
+        <v>1.01292548999049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9896304548770583</v>
+        <v>1.020383029025281</v>
       </c>
       <c r="D17">
-        <v>1.010141724155005</v>
+        <v>1.026653394453047</v>
       </c>
       <c r="E17">
-        <v>0.9986035367067617</v>
+        <v>1.021473438454866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038377132083583</v>
+        <v>1.030937634072149</v>
       </c>
       <c r="J17">
-        <v>1.017493035444237</v>
+        <v>1.026671388409726</v>
       </c>
       <c r="K17">
-        <v>1.02397423858399</v>
+        <v>1.03005213478444</v>
       </c>
       <c r="L17">
-        <v>1.012636095366566</v>
+        <v>1.024890698300706</v>
       </c>
       <c r="N17">
-        <v>1.009874020417987</v>
+        <v>1.012970743874219</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9904496383818282</v>
+        <v>1.020544222945653</v>
       </c>
       <c r="D18">
-        <v>1.010710366577734</v>
+        <v>1.026770942054959</v>
       </c>
       <c r="E18">
-        <v>0.9992271300203288</v>
+        <v>1.021608204789362</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038568315322367</v>
+        <v>1.030964463444248</v>
       </c>
       <c r="J18">
-        <v>1.017878366277371</v>
+        <v>1.026751077433335</v>
       </c>
       <c r="K18">
-        <v>1.024346751111322</v>
+        <v>1.030126928819723</v>
       </c>
       <c r="L18">
-        <v>1.013059217555662</v>
+        <v>1.024982400078018</v>
       </c>
       <c r="N18">
-        <v>1.01000187128899</v>
+        <v>1.012997138277852</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9907280940168635</v>
+        <v>1.020599200093904</v>
       </c>
       <c r="D19">
-        <v>1.010903731211329</v>
+        <v>1.02681103370723</v>
       </c>
       <c r="E19">
-        <v>0.9994392343242781</v>
+        <v>1.021654177017656</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038633151455843</v>
+        <v>1.030973593776413</v>
       </c>
       <c r="J19">
-        <v>1.018009312142764</v>
+        <v>1.02677824921246</v>
       </c>
       <c r="K19">
-        <v>1.024473320916023</v>
+        <v>1.030152428033672</v>
       </c>
       <c r="L19">
-        <v>1.013203058894848</v>
+        <v>1.025013674186894</v>
       </c>
       <c r="N19">
-        <v>1.010045318528029</v>
+        <v>1.013006137831535</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9894793594781892</v>
+        <v>1.020353385365508</v>
       </c>
       <c r="D20">
-        <v>1.01003687502887</v>
+        <v>1.026631777671978</v>
       </c>
       <c r="E20">
-        <v>0.9984885809953636</v>
+        <v>1.021448658895468</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038341797594436</v>
+        <v>1.030932690572477</v>
       </c>
       <c r="J20">
-        <v>1.017421946025977</v>
+        <v>1.02665673016711</v>
       </c>
       <c r="K20">
-        <v>1.02390550452457</v>
+        <v>1.030038375276824</v>
       </c>
       <c r="L20">
-        <v>1.012558059049684</v>
+        <v>1.024873833389681</v>
       </c>
       <c r="N20">
-        <v>1.009850433328161</v>
+        <v>1.012965888704258</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.985358264059978</v>
+        <v>1.019555210498447</v>
       </c>
       <c r="D21">
-        <v>1.007181369606124</v>
+        <v>1.026049767439358</v>
       </c>
       <c r="E21">
-        <v>0.9953607604911771</v>
+        <v>1.02078192211061</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037369849301035</v>
+        <v>1.030798480957844</v>
       </c>
       <c r="J21">
-        <v>1.015481166927808</v>
+        <v>1.026261657953079</v>
       </c>
       <c r="K21">
-        <v>1.022027954141248</v>
+        <v>1.029667334283365</v>
       </c>
       <c r="L21">
-        <v>1.010430560968492</v>
+        <v>1.024419632056684</v>
       </c>
       <c r="N21">
-        <v>1.009206499658964</v>
+        <v>1.012835019293771</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9827184227577271</v>
+        <v>1.019054138363309</v>
       </c>
       <c r="D22">
-        <v>1.005356573679534</v>
+        <v>1.025684434382329</v>
       </c>
       <c r="E22">
-        <v>0.9933647434560076</v>
+        <v>1.020363819878631</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036739414567503</v>
+        <v>1.030713159766647</v>
       </c>
       <c r="J22">
-        <v>1.014236317719834</v>
+        <v>1.026013266089096</v>
       </c>
       <c r="K22">
-        <v>1.020822657458766</v>
+        <v>1.029433866189773</v>
       </c>
       <c r="L22">
-        <v>1.009068802104037</v>
+        <v>1.024134398944343</v>
       </c>
       <c r="N22">
-        <v>1.008793479978918</v>
+        <v>1.012752727046908</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9841225877910849</v>
+        <v>1.019319692269349</v>
       </c>
       <c r="D23">
-        <v>1.006326778578898</v>
+        <v>1.025878046786356</v>
       </c>
       <c r="E23">
-        <v>0.9944257227954082</v>
+        <v>1.020585358629439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037075477485453</v>
+        <v>1.030758478821999</v>
       </c>
       <c r="J23">
-        <v>1.014898614031577</v>
+        <v>1.026144942302652</v>
       </c>
       <c r="K23">
-        <v>1.021464002001751</v>
+        <v>1.029557648611628</v>
       </c>
       <c r="L23">
-        <v>1.009793029029745</v>
+        <v>1.024285573536175</v>
       </c>
       <c r="N23">
-        <v>1.009013217268944</v>
+        <v>1.012796352457979</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9895476488949564</v>
+        <v>1.020366779800013</v>
       </c>
       <c r="D24">
-        <v>1.010084261527947</v>
+        <v>1.026641545164373</v>
       </c>
       <c r="E24">
-        <v>0.9985405341822707</v>
+        <v>1.021459855339376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038357770183483</v>
+        <v>1.030934924650942</v>
       </c>
       <c r="J24">
-        <v>1.017454076388907</v>
+        <v>1.026663353597562</v>
       </c>
       <c r="K24">
-        <v>1.02393657069521</v>
+        <v>1.030044592671369</v>
       </c>
       <c r="L24">
-        <v>1.012593328243533</v>
+        <v>1.02488145380393</v>
       </c>
       <c r="N24">
-        <v>1.009861094009929</v>
+        <v>1.012968082551033</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9956419119365185</v>
+        <v>1.021585155156572</v>
       </c>
       <c r="D25">
-        <v>1.014321956779156</v>
+        <v>1.027530083952755</v>
       </c>
       <c r="E25">
-        <v>1.003193478218986</v>
+        <v>1.022479383462418</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039764029471392</v>
+        <v>1.03113556843479</v>
       </c>
       <c r="J25">
-        <v>1.020316838553993</v>
+        <v>1.027264918458275</v>
       </c>
       <c r="K25">
-        <v>1.026701937870625</v>
+        <v>1.03060883207594</v>
       </c>
       <c r="L25">
-        <v>1.015742421007115</v>
+        <v>1.025574372653441</v>
       </c>
       <c r="N25">
-        <v>1.010810943377191</v>
+        <v>1.013167308253146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_112/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022559500331671</v>
+        <v>1.000351658449917</v>
       </c>
       <c r="D2">
-        <v>1.028240752498946</v>
+        <v>1.017608626112055</v>
       </c>
       <c r="E2">
-        <v>1.023296285314085</v>
+        <v>1.006812458667999</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031292256682527</v>
+        <v>1.040822166061162</v>
       </c>
       <c r="J2">
-        <v>1.02774465489041</v>
+        <v>1.022521856558581</v>
       </c>
       <c r="K2">
-        <v>1.03105814358181</v>
+        <v>1.02882797667174</v>
       </c>
       <c r="L2">
-        <v>1.026128140484702</v>
+        <v>1.018177694042055</v>
       </c>
       <c r="N2">
-        <v>1.013326145891841</v>
+        <v>1.011542534733745</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023268414497513</v>
+        <v>1.003688958938006</v>
       </c>
       <c r="D3">
-        <v>1.028757867005622</v>
+        <v>1.019943528289188</v>
       </c>
       <c r="E3">
-        <v>1.023891552078117</v>
+        <v>1.009389590544876</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031404072018624</v>
+        <v>1.041554770053532</v>
       </c>
       <c r="J3">
-        <v>1.028092919966117</v>
+        <v>1.02407956190123</v>
       </c>
       <c r="K3">
-        <v>1.031383937220203</v>
+        <v>1.030327432127265</v>
       </c>
       <c r="L3">
-        <v>1.026530833216134</v>
+        <v>1.019903723128224</v>
       </c>
       <c r="N3">
-        <v>1.013441430053179</v>
+        <v>1.012059328520738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023727788980767</v>
+        <v>1.005811900364848</v>
       </c>
       <c r="D4">
-        <v>1.029092973938511</v>
+        <v>1.021431340310257</v>
       </c>
       <c r="E4">
-        <v>1.02427769913853</v>
+        <v>1.011034671633659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031475514945559</v>
+        <v>1.042012643378293</v>
       </c>
       <c r="J4">
-        <v>1.028318231701515</v>
+        <v>1.025068096561436</v>
       </c>
       <c r="K4">
-        <v>1.031594532211163</v>
+        <v>1.031277809830371</v>
       </c>
       <c r="L4">
-        <v>1.026791674326228</v>
+        <v>1.021001717469272</v>
       </c>
       <c r="N4">
-        <v>1.013516002383445</v>
+        <v>1.012387271873013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023921065817073</v>
+        <v>1.006695870604956</v>
       </c>
       <c r="D5">
-        <v>1.029233970396204</v>
+        <v>1.022051418421437</v>
       </c>
       <c r="E5">
-        <v>1.024440265402363</v>
+        <v>1.01172100611522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031505331152814</v>
+        <v>1.042201310824382</v>
       </c>
       <c r="J5">
-        <v>1.028412942036504</v>
+        <v>1.025479122120323</v>
       </c>
       <c r="K5">
-        <v>1.031683013401435</v>
+        <v>1.031672676086459</v>
       </c>
       <c r="L5">
-        <v>1.026901395518175</v>
+        <v>1.021458892265077</v>
       </c>
       <c r="N5">
-        <v>1.013547346318703</v>
+        <v>1.012523622992458</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023953526923395</v>
+        <v>1.006843800269634</v>
       </c>
       <c r="D6">
-        <v>1.029257651153379</v>
+        <v>1.022155218970372</v>
       </c>
       <c r="E6">
-        <v>1.024467574421888</v>
+        <v>1.011835940023058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031510324595928</v>
+        <v>1.042232766145509</v>
       </c>
       <c r="J6">
-        <v>1.028428843650122</v>
+        <v>1.025547870633922</v>
       </c>
       <c r="K6">
-        <v>1.031697866637035</v>
+        <v>1.031738704264995</v>
       </c>
       <c r="L6">
-        <v>1.02691982187361</v>
+        <v>1.021535397272112</v>
       </c>
       <c r="N6">
-        <v>1.01355260872181</v>
+        <v>1.012546428867703</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02373037094576</v>
+        <v>1.005823745177846</v>
       </c>
       <c r="D7">
-        <v>1.029094857480925</v>
+        <v>1.021439646885471</v>
       </c>
       <c r="E7">
-        <v>1.024279870455654</v>
+        <v>1.011043862960255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031475914210296</v>
+        <v>1.042015179318027</v>
       </c>
       <c r="J7">
-        <v>1.028319497269484</v>
+        <v>1.025073606481837</v>
       </c>
       <c r="K7">
-        <v>1.031595714710961</v>
+        <v>1.031283104302147</v>
       </c>
       <c r="L7">
-        <v>1.026793140178224</v>
+        <v>1.021007843514628</v>
       </c>
       <c r="N7">
-        <v>1.013516421227882</v>
+        <v>1.012389099722728</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022798943347535</v>
+        <v>1.001487215178481</v>
       </c>
       <c r="D8">
-        <v>1.028415409176045</v>
+        <v>1.018402555050159</v>
       </c>
       <c r="E8">
-        <v>1.023497256469095</v>
+        <v>1.007688148721123</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031330232967939</v>
+        <v>1.041073131201529</v>
       </c>
       <c r="J8">
-        <v>1.027862359968063</v>
+        <v>1.023052364269917</v>
       </c>
       <c r="K8">
-        <v>1.031168290797446</v>
+        <v>1.029338890809277</v>
       </c>
       <c r="L8">
-        <v>1.026264175146489</v>
+        <v>1.018764976565311</v>
       </c>
       <c r="N8">
-        <v>1.013365111447912</v>
+        <v>1.011718542661711</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021162794114935</v>
+        <v>0.9935553857872538</v>
       </c>
       <c r="D9">
-        <v>1.027222047598256</v>
+        <v>1.012869121352418</v>
       </c>
       <c r="E9">
-        <v>1.02212570979588</v>
+        <v>1.001596699618935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031066595492564</v>
+        <v>1.039286983699086</v>
       </c>
       <c r="J9">
-        <v>1.027056586997696</v>
+        <v>1.019337790698516</v>
       </c>
       <c r="K9">
-        <v>1.030413528614407</v>
+        <v>1.025756800405137</v>
       </c>
       <c r="L9">
-        <v>1.025334221632805</v>
+        <v>1.014663924495386</v>
       </c>
       <c r="N9">
-        <v>1.013098319533667</v>
+        <v>1.010486101703795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020075613639945</v>
+        <v>0.9880567610620459</v>
       </c>
       <c r="D10">
-        <v>1.026429225202065</v>
+        <v>1.009050231375133</v>
       </c>
       <c r="E10">
-        <v>1.021216526429121</v>
+        <v>0.9974072148708345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030886224749195</v>
+        <v>1.038008046870659</v>
       </c>
       <c r="J10">
-        <v>1.026519326461464</v>
+        <v>1.016752379379017</v>
       </c>
       <c r="K10">
-        <v>1.029909371199445</v>
+        <v>1.023257981365002</v>
       </c>
       <c r="L10">
-        <v>1.024715789705058</v>
+        <v>1.011823441187087</v>
       </c>
       <c r="N10">
-        <v>1.012920375685183</v>
+        <v>1.009628275309872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019605729777308</v>
+        <v>0.9856221432782566</v>
       </c>
       <c r="D11">
-        <v>1.026086602803255</v>
+        <v>1.007363964783267</v>
       </c>
       <c r="E11">
-        <v>1.02082409558772</v>
+        <v>0.9955606050422848</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030807037959869</v>
+        <v>1.037432542586174</v>
       </c>
       <c r="J11">
-        <v>1.02628668546959</v>
+        <v>1.01560553642517</v>
       </c>
       <c r="K11">
-        <v>1.029690850270821</v>
+        <v>1.022148330985917</v>
       </c>
       <c r="L11">
-        <v>1.024448385809254</v>
+        <v>1.010566730288332</v>
       </c>
       <c r="N11">
-        <v>1.01284331043334</v>
+        <v>1.009247763872064</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019431327249483</v>
+        <v>0.9847094231474652</v>
       </c>
       <c r="D12">
-        <v>1.025959441092668</v>
+        <v>1.006732539250777</v>
       </c>
       <c r="E12">
-        <v>1.020678519522587</v>
+        <v>0.9948696215599909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030777462221318</v>
+        <v>1.037215439923029</v>
       </c>
       <c r="J12">
-        <v>1.026200273114445</v>
+        <v>1.015175307448048</v>
       </c>
       <c r="K12">
-        <v>1.029609650651503</v>
+        <v>1.021731881201351</v>
       </c>
       <c r="L12">
-        <v>1.024349118950473</v>
+        <v>1.010095776022155</v>
       </c>
       <c r="N12">
-        <v>1.012814683291907</v>
+        <v>1.009105019767487</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019468731118367</v>
+        <v>0.9849055900818092</v>
       </c>
       <c r="D13">
-        <v>1.025986712993796</v>
+        <v>1.006868214364528</v>
       </c>
       <c r="E13">
-        <v>1.020709737439665</v>
+        <v>0.9950180723296039</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030783813646776</v>
+        <v>1.037262161285032</v>
       </c>
       <c r="J13">
-        <v>1.026218808796028</v>
+        <v>1.015267787113892</v>
       </c>
       <c r="K13">
-        <v>1.02962706963484</v>
+        <v>1.021821406642207</v>
       </c>
       <c r="L13">
-        <v>1.024370409340013</v>
+        <v>1.010196987615245</v>
       </c>
       <c r="N13">
-        <v>1.012820823978944</v>
+        <v>1.00913570316597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019591310878859</v>
+        <v>0.9855468707656728</v>
       </c>
       <c r="D14">
-        <v>1.02607608945301</v>
+        <v>1.007311875374423</v>
       </c>
       <c r="E14">
-        <v>1.020812058331643</v>
+        <v>0.9955035926500729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030804596525213</v>
+        <v>1.037414665270234</v>
       </c>
       <c r="J14">
-        <v>1.026279542571493</v>
+        <v>1.015570060856716</v>
       </c>
       <c r="K14">
-        <v>1.029684138913388</v>
+        <v>1.022113995082168</v>
       </c>
       <c r="L14">
-        <v>1.024440179169998</v>
+        <v>1.010527886644545</v>
       </c>
       <c r="N14">
-        <v>1.01284094413627</v>
+        <v>1.009235993522056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01966685403852</v>
+        <v>0.9859408624195501</v>
       </c>
       <c r="D15">
-        <v>1.026131171017345</v>
+        <v>1.007584552570211</v>
       </c>
       <c r="E15">
-        <v>1.020875126881912</v>
+        <v>0.9958020602745156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030817380067605</v>
+        <v>1.037508183902562</v>
       </c>
       <c r="J15">
-        <v>1.026316962812224</v>
+        <v>1.015755735712351</v>
       </c>
       <c r="K15">
-        <v>1.029719297086257</v>
+        <v>1.022293698058674</v>
       </c>
       <c r="L15">
-        <v>1.024483174510956</v>
+        <v>1.01073120961245</v>
       </c>
       <c r="N15">
-        <v>1.012853340621752</v>
+        <v>1.009297598193215</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020106816852462</v>
+        <v>0.9882171798984898</v>
       </c>
       <c r="D16">
-        <v>1.026451978321934</v>
+        <v>1.009161441365247</v>
       </c>
       <c r="E16">
-        <v>1.021242597327571</v>
+        <v>0.9975290674329348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030891457321049</v>
+        <v>1.03804577758596</v>
       </c>
       <c r="J16">
-        <v>1.026534766122063</v>
+        <v>1.016827904327614</v>
       </c>
       <c r="K16">
-        <v>1.02992386925651</v>
+        <v>1.023331032404871</v>
       </c>
       <c r="L16">
-        <v>1.024733544587713</v>
+        <v>1.011906269707484</v>
       </c>
       <c r="N16">
-        <v>1.01292548999049</v>
+        <v>1.00965333394847</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020383029025281</v>
+        <v>0.9896304548770587</v>
       </c>
       <c r="D17">
-        <v>1.026653394453047</v>
+        <v>1.010141724155005</v>
       </c>
       <c r="E17">
-        <v>1.021473438454866</v>
+        <v>0.9986035367067621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030937634072149</v>
+        <v>1.038377132083583</v>
       </c>
       <c r="J17">
-        <v>1.026671388409726</v>
+        <v>1.017493035444237</v>
       </c>
       <c r="K17">
-        <v>1.03005213478444</v>
+        <v>1.02397423858399</v>
       </c>
       <c r="L17">
-        <v>1.024890698300706</v>
+        <v>1.012636095366566</v>
       </c>
       <c r="N17">
-        <v>1.012970743874219</v>
+        <v>1.009874020417987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020544222945653</v>
+        <v>0.9904496383818278</v>
       </c>
       <c r="D18">
-        <v>1.026770942054959</v>
+        <v>1.010710366577734</v>
       </c>
       <c r="E18">
-        <v>1.021608204789362</v>
+        <v>0.9992271300203281</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030964463444248</v>
+        <v>1.038568315322367</v>
       </c>
       <c r="J18">
-        <v>1.026751077433335</v>
+        <v>1.01787836627737</v>
       </c>
       <c r="K18">
-        <v>1.030126928819723</v>
+        <v>1.024346751111321</v>
       </c>
       <c r="L18">
-        <v>1.024982400078018</v>
+        <v>1.013059217555661</v>
       </c>
       <c r="N18">
-        <v>1.012997138277852</v>
+        <v>1.01000187128899</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020599200093904</v>
+        <v>0.990728094016863</v>
       </c>
       <c r="D19">
-        <v>1.02681103370723</v>
+        <v>1.010903731211328</v>
       </c>
       <c r="E19">
-        <v>1.021654177017656</v>
+        <v>0.9994392343242774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030973593776413</v>
+        <v>1.038633151455843</v>
       </c>
       <c r="J19">
-        <v>1.02677824921246</v>
+        <v>1.018009312142764</v>
       </c>
       <c r="K19">
-        <v>1.030152428033672</v>
+        <v>1.024473320916023</v>
       </c>
       <c r="L19">
-        <v>1.025013674186894</v>
+        <v>1.013203058894848</v>
       </c>
       <c r="N19">
-        <v>1.013006137831535</v>
+        <v>1.010045318528029</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020353385365508</v>
+        <v>0.9894793594781891</v>
       </c>
       <c r="D20">
-        <v>1.026631777671978</v>
+        <v>1.01003687502887</v>
       </c>
       <c r="E20">
-        <v>1.021448658895468</v>
+        <v>0.9984885809953633</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030932690572477</v>
+        <v>1.038341797594436</v>
       </c>
       <c r="J20">
-        <v>1.02665673016711</v>
+        <v>1.017421946025977</v>
       </c>
       <c r="K20">
-        <v>1.030038375276824</v>
+        <v>1.02390550452457</v>
       </c>
       <c r="L20">
-        <v>1.024873833389681</v>
+        <v>1.012558059049684</v>
       </c>
       <c r="N20">
-        <v>1.012965888704258</v>
+        <v>1.009850433328162</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019555210498447</v>
+        <v>0.9853582640599783</v>
       </c>
       <c r="D21">
-        <v>1.026049767439358</v>
+        <v>1.007181369606124</v>
       </c>
       <c r="E21">
-        <v>1.02078192211061</v>
+        <v>0.9953607604911771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030798480957844</v>
+        <v>1.037369849301035</v>
       </c>
       <c r="J21">
-        <v>1.026261657953079</v>
+        <v>1.015481166927808</v>
       </c>
       <c r="K21">
-        <v>1.029667334283365</v>
+        <v>1.022027954141248</v>
       </c>
       <c r="L21">
-        <v>1.024419632056684</v>
+        <v>1.010430560968492</v>
       </c>
       <c r="N21">
-        <v>1.012835019293771</v>
+        <v>1.009206499658964</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019054138363309</v>
+        <v>0.9827184227577269</v>
       </c>
       <c r="D22">
-        <v>1.025684434382329</v>
+        <v>1.005356573679534</v>
       </c>
       <c r="E22">
-        <v>1.020363819878631</v>
+        <v>0.9933647434560071</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030713159766647</v>
+        <v>1.036739414567503</v>
       </c>
       <c r="J22">
-        <v>1.026013266089096</v>
+        <v>1.014236317719834</v>
       </c>
       <c r="K22">
-        <v>1.029433866189773</v>
+        <v>1.020822657458765</v>
       </c>
       <c r="L22">
-        <v>1.024134398944343</v>
+        <v>1.009068802104036</v>
       </c>
       <c r="N22">
-        <v>1.012752727046908</v>
+        <v>1.008793479978918</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019319692269349</v>
+        <v>0.9841225877910844</v>
       </c>
       <c r="D23">
-        <v>1.025878046786356</v>
+        <v>1.006326778578898</v>
       </c>
       <c r="E23">
-        <v>1.020585358629439</v>
+        <v>0.9944257227954078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030758478821999</v>
+        <v>1.037075477485453</v>
       </c>
       <c r="J23">
-        <v>1.026144942302652</v>
+        <v>1.014898614031577</v>
       </c>
       <c r="K23">
-        <v>1.029557648611628</v>
+        <v>1.021464002001751</v>
       </c>
       <c r="L23">
-        <v>1.024285573536175</v>
+        <v>1.009793029029745</v>
       </c>
       <c r="N23">
-        <v>1.012796352457979</v>
+        <v>1.009013217268944</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020366779800013</v>
+        <v>0.9895476488949562</v>
       </c>
       <c r="D24">
-        <v>1.026641545164373</v>
+        <v>1.010084261527947</v>
       </c>
       <c r="E24">
-        <v>1.021459855339376</v>
+        <v>0.9985405341822705</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030934924650942</v>
+        <v>1.038357770183483</v>
       </c>
       <c r="J24">
-        <v>1.026663353597562</v>
+        <v>1.017454076388907</v>
       </c>
       <c r="K24">
-        <v>1.030044592671369</v>
+        <v>1.02393657069521</v>
       </c>
       <c r="L24">
-        <v>1.02488145380393</v>
+        <v>1.012593328243532</v>
       </c>
       <c r="N24">
-        <v>1.012968082551033</v>
+        <v>1.009861094009928</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021585155156572</v>
+        <v>0.9956419119365185</v>
       </c>
       <c r="D25">
-        <v>1.027530083952755</v>
+        <v>1.014321956779156</v>
       </c>
       <c r="E25">
-        <v>1.022479383462418</v>
+        <v>1.003193478218986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03113556843479</v>
+        <v>1.039764029471392</v>
       </c>
       <c r="J25">
-        <v>1.027264918458275</v>
+        <v>1.020316838553993</v>
       </c>
       <c r="K25">
-        <v>1.03060883207594</v>
+        <v>1.026701937870625</v>
       </c>
       <c r="L25">
-        <v>1.025574372653441</v>
+        <v>1.015742421007115</v>
       </c>
       <c r="N25">
-        <v>1.013167308253146</v>
+        <v>1.01081094337719</v>
       </c>
     </row>
   </sheetData>
